--- a/results/GA/ga_results.xlsx
+++ b/results/GA/ga_results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MEDSL\election_night2020\results\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CC1F3D5-F8CB-4F15-AF13-E749D35B196C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C0D7B6-949E-4266-B8E0-518EF40B8A14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B0F07BC4-43FE-4C52-B8CC-D731C2314E05}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B0F07BC4-43FE-4C52-B8CC-D731C2314E05}"/>
   </bookViews>
   <sheets>
     <sheet name="11041115" sheetId="1" r:id="rId1"/>
+    <sheet name="1104400" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="162">
   <si>
     <t>Appling</t>
   </si>
@@ -909,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC7B5D3-AEEC-4E11-A884-B56910C556BC}">
   <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2682,4 +2683,1783 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07B1027-8B35-40EE-AD8B-331EA86040A7}">
+  <dimension ref="A1:C160"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>6517</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2300</v>
+      </c>
+      <c r="C3" s="4">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4018</v>
+      </c>
+      <c r="C4" s="4">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>894</v>
+      </c>
+      <c r="C5" s="4">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8893</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>7774</v>
+      </c>
+      <c r="C7" s="4">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>26794</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>37498</v>
+      </c>
+      <c r="C9" s="3">
+        <v>11924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4109</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6409</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>26506</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4326</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>6974</v>
+      </c>
+      <c r="C14" s="4">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4248</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>12980</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5036</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>18358</v>
+      </c>
+      <c r="C17" s="3">
+        <v>11198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5179</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4836</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>8403</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>923</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>15154</v>
+      </c>
+      <c r="C21" s="3">
+        <v>7871</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3129</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>37444</v>
+      </c>
+      <c r="C23" s="3">
+        <v>16212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>25142</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6927</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3419</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45656</v>
+      </c>
+      <c r="C26" s="3">
+        <v>59609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4">
+        <v>878</v>
+      </c>
+      <c r="C27" s="4">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>8058</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <v>99474</v>
+      </c>
+      <c r="C29" s="3">
+        <v>42683</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>14385</v>
+      </c>
+      <c r="C30" s="3">
+        <v>35882</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4">
+        <v>637</v>
+      </c>
+      <c r="C31" s="4">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>14743</v>
+      </c>
+      <c r="C32" s="3">
+        <v>87867</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2104</v>
+      </c>
+      <c r="C33" s="4">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>160737</v>
+      </c>
+      <c r="C34" s="3">
+        <v>210517</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3">
+        <v>10532</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>11766</v>
+      </c>
+      <c r="C36" s="3">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3">
+        <v>49952</v>
+      </c>
+      <c r="C37" s="3">
+        <v>29175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>4900</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3">
+        <v>51405</v>
+      </c>
+      <c r="C39" s="3">
+        <v>24072</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>4421</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3">
+        <v>4982</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>6058</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3">
+        <v>13393</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3">
+        <v>6752</v>
+      </c>
+      <c r="C44" s="3">
+        <v>4772</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3">
+        <v>56306</v>
+      </c>
+      <c r="C45" s="3">
+        <v>296764</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3">
+        <v>8270</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2155</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3">
+        <v>8699</v>
+      </c>
+      <c r="C48" s="3">
+        <v>18432</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3">
+        <v>24924</v>
+      </c>
+      <c r="C49" s="3">
+        <v>41409</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2719</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1254</v>
+      </c>
+      <c r="C51" s="4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <v>23340</v>
+      </c>
+      <c r="C52" s="3">
+        <v>7706</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3">
+        <v>6212</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <v>6551</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2888</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3">
+        <v>12144</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3">
+        <v>35653</v>
+      </c>
+      <c r="C57" s="3">
+        <v>30789</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
+        <v>26721</v>
+      </c>
+      <c r="C58" s="3">
+        <v>10706</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3">
+        <v>81907</v>
+      </c>
+      <c r="C59" s="3">
+        <v>38281</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <v>9066</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3">
+        <v>120083</v>
+      </c>
+      <c r="C61" s="3">
+        <v>319268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3">
+        <v>13382</v>
+      </c>
+      <c r="C62" s="3">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1403</v>
+      </c>
+      <c r="C63" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3">
+        <v>25581</v>
+      </c>
+      <c r="C64" s="3">
+        <v>15857</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3">
+        <v>19385</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3">
+        <v>7027</v>
+      </c>
+      <c r="C66" s="3">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3">
+        <v>7063</v>
+      </c>
+      <c r="C67" s="3">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3">
+        <v>163937</v>
+      </c>
+      <c r="C68" s="3">
+        <v>236336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3">
+        <v>16616</v>
+      </c>
+      <c r="C69" s="3">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3">
+        <v>61748</v>
+      </c>
+      <c r="C70" s="3">
+        <v>22878</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1159</v>
+      </c>
+      <c r="C71" s="3">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3">
+        <v>12326</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3">
+        <v>12219</v>
+      </c>
+      <c r="C73" s="3">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3">
+        <v>9460</v>
+      </c>
+      <c r="C74" s="3">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3">
+        <v>4515</v>
+      </c>
+      <c r="C75" s="4">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3">
+        <v>47612</v>
+      </c>
+      <c r="C76" s="3">
+        <v>72067</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3">
+        <v>37442</v>
+      </c>
+      <c r="C77" s="3">
+        <v>26270</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3">
+        <v>3128</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3">
+        <v>29491</v>
+      </c>
+      <c r="C79" s="3">
+        <v>7641</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3">
+        <v>5809</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3">
+        <v>4695</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3">
+        <v>3534</v>
+      </c>
+      <c r="C82" s="3">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3">
+        <v>2158</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2850</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="3">
+        <v>9960</v>
+      </c>
+      <c r="C85" s="3">
+        <v>4884</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3">
+        <v>6163</v>
+      </c>
+      <c r="C86" s="3">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2509</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3">
+        <v>14351</v>
+      </c>
+      <c r="C88" s="3">
+        <v>7875</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="3">
+        <v>11998</v>
+      </c>
+      <c r="C89" s="3">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3">
+        <v>7944</v>
+      </c>
+      <c r="C90" s="3">
+        <v>13051</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="3">
+        <v>3175</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3">
+        <v>3508</v>
+      </c>
+      <c r="C92" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="3">
+        <v>25232</v>
+      </c>
+      <c r="C93" s="3">
+        <v>19397</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3">
+        <v>12160</v>
+      </c>
+      <c r="C94" s="3">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="3">
+        <v>6165</v>
+      </c>
+      <c r="C95" s="3">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3">
+        <v>4015</v>
+      </c>
+      <c r="C96" s="3">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1783</v>
+      </c>
+      <c r="C97" s="3">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3">
+        <v>11140</v>
+      </c>
+      <c r="C98" s="3">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="3">
+        <v>2275</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3">
+        <v>6522</v>
+      </c>
+      <c r="C100" s="3">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3">
+        <v>2063</v>
+      </c>
+      <c r="C101" s="4">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3">
+        <v>4933</v>
+      </c>
+      <c r="C102" s="3">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="3">
+        <v>11053</v>
+      </c>
+      <c r="C103" s="3">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3">
+        <v>2959</v>
+      </c>
+      <c r="C104" s="4">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="3">
+        <v>8218</v>
+      </c>
+      <c r="C105" s="3">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3">
+        <v>12938</v>
+      </c>
+      <c r="C106" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" s="3">
+        <v>29949</v>
+      </c>
+      <c r="C107" s="3">
+        <v>49201</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" s="3">
+        <v>23847</v>
+      </c>
+      <c r="C108" s="3">
+        <v>29754</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" s="3">
+        <v>16590</v>
+      </c>
+      <c r="C109" s="3">
+        <v>8156</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" s="3">
+        <v>5591</v>
+      </c>
+      <c r="C110" s="3">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="3">
+        <v>54460</v>
+      </c>
+      <c r="C111" s="3">
+        <v>29658</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="3">
+        <v>6458</v>
+      </c>
+      <c r="C112" s="3">
+        <v>5856</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" s="3">
+        <v>13084</v>
+      </c>
+      <c r="C113" s="3">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114" s="3">
+        <v>7899</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115" s="3">
+        <v>9124</v>
+      </c>
+      <c r="C115" s="3">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116" s="3">
+        <v>13576</v>
+      </c>
+      <c r="C116" s="3">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B117" s="3">
+        <v>2805</v>
+      </c>
+      <c r="C117" s="3">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118" s="3">
+        <v>7482</v>
+      </c>
+      <c r="C118" s="3">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B119" s="4">
+        <v>604</v>
+      </c>
+      <c r="C119" s="4">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120" s="3">
+        <v>7198</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121" s="3">
+        <v>1389</v>
+      </c>
+      <c r="C121" s="3">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" s="3">
+        <v>26707</v>
+      </c>
+      <c r="C122" s="3">
+        <v>58776</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123" s="3">
+        <v>12782</v>
+      </c>
+      <c r="C123" s="3">
+        <v>30396</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124" s="3">
+        <v>1799</v>
+      </c>
+      <c r="C124" s="4">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" s="3">
+        <v>3905</v>
+      </c>
+      <c r="C125" s="3">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126" s="3">
+        <v>2607</v>
+      </c>
+      <c r="C126" s="3">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127" s="3">
+        <v>17337</v>
+      </c>
+      <c r="C127" s="3">
+        <v>11356</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128" s="3">
+        <v>9359</v>
+      </c>
+      <c r="C128" s="3">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129" s="4">
+        <v>796</v>
+      </c>
+      <c r="C129" s="3">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130" s="3">
+        <v>5346</v>
+      </c>
+      <c r="C130" s="3">
+        <v>5497</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" s="3">
+        <v>1390</v>
+      </c>
+      <c r="C131" s="3">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B132" s="4">
+        <v>360</v>
+      </c>
+      <c r="C132" s="4">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B133" s="3">
+        <v>6048</v>
+      </c>
+      <c r="C133" s="3">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134" s="3">
+        <v>2245</v>
+      </c>
+      <c r="C134" s="3">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B135" s="3">
+        <v>2822</v>
+      </c>
+      <c r="C135" s="3">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B136" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C136" s="3">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B137" s="3">
+        <v>12950</v>
+      </c>
+      <c r="C137" s="3">
+        <v>8690</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138" s="3">
+        <v>10775</v>
+      </c>
+      <c r="C138" s="3">
+        <v>5306</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B139" s="3">
+        <v>7865</v>
+      </c>
+      <c r="C139" s="3">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140" s="3">
+        <v>6374</v>
+      </c>
+      <c r="C140" s="3">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141" s="3">
+        <v>2101</v>
+      </c>
+      <c r="C141" s="4">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142" s="3">
+        <v>18097</v>
+      </c>
+      <c r="C142" s="3">
+        <v>11542</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143" s="3">
+        <v>2348</v>
+      </c>
+      <c r="C143" s="3">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144" s="3">
+        <v>2368</v>
+      </c>
+      <c r="C144" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145" s="3">
+        <v>12638</v>
+      </c>
+      <c r="C145" s="3">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" s="3">
+        <v>8602</v>
+      </c>
+      <c r="C146" s="3">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147" s="3">
+        <v>23166</v>
+      </c>
+      <c r="C147" s="3">
+        <v>5764</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148" s="3">
+        <v>34422</v>
+      </c>
+      <c r="C148" s="3">
+        <v>10347</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B149" s="3">
+        <v>9909</v>
+      </c>
+      <c r="C149" s="3">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150" s="3">
+        <v>1177</v>
+      </c>
+      <c r="C150" s="3">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151" s="3">
+        <v>4658</v>
+      </c>
+      <c r="C151" s="3">
+        <v>4721</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B152" s="3">
+        <v>9964</v>
+      </c>
+      <c r="C152" s="3">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153" s="4">
+        <v>748</v>
+      </c>
+      <c r="C153" s="4">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154" s="3">
+        <v>1582</v>
+      </c>
+      <c r="C154" s="4">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155" s="3">
+        <v>12133</v>
+      </c>
+      <c r="C155" s="3">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" s="3">
+        <v>25591</v>
+      </c>
+      <c r="C156" s="3">
+        <v>10649</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157" s="3">
+        <v>2403</v>
+      </c>
+      <c r="C157" s="4">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158" s="3">
+        <v>2820</v>
+      </c>
+      <c r="C158" s="3">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159" s="3">
+        <v>2664</v>
+      </c>
+      <c r="C159" s="3">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160" s="3">
+        <v>6826</v>
+      </c>
+      <c r="C160" s="3">
+        <v>2395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/GA/ga_results.xlsx
+++ b/results/GA/ga_results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MEDSL\election_night2020\results\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C0D7B6-949E-4266-B8E0-518EF40B8A14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC11F3F3-96F6-4C48-B9D2-507E8D4148CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B0F07BC4-43FE-4C52-B8CC-D731C2314E05}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B0F07BC4-43FE-4C52-B8CC-D731C2314E05}"/>
   </bookViews>
   <sheets>
     <sheet name="11041115" sheetId="1" r:id="rId1"/>
     <sheet name="1104400" sheetId="2" r:id="rId2"/>
+    <sheet name="11051210pm" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="185">
   <si>
     <t>Appling</t>
   </si>
@@ -521,13 +522,82 @@
   </si>
   <si>
     <t>biden</t>
+  </si>
+  <si>
+    <t>pct_returned</t>
+  </si>
+  <si>
+    <t>93.7% in</t>
+  </si>
+  <si>
+    <t>86.7% in</t>
+  </si>
+  <si>
+    <t>92.6% in</t>
+  </si>
+  <si>
+    <t>87.6% in</t>
+  </si>
+  <si>
+    <t>99% in</t>
+  </si>
+  <si>
+    <t>95% in</t>
+  </si>
+  <si>
+    <t>92.5% in</t>
+  </si>
+  <si>
+    <t>94.8% in</t>
+  </si>
+  <si>
+    <t>72.2% in</t>
+  </si>
+  <si>
+    <t>93.3% in</t>
+  </si>
+  <si>
+    <t>93% in</t>
+  </si>
+  <si>
+    <t>87.4% in</t>
+  </si>
+  <si>
+    <t>89.8% in</t>
+  </si>
+  <si>
+    <t>79.2% in</t>
+  </si>
+  <si>
+    <t>91.3% in</t>
+  </si>
+  <si>
+    <t>94.1% in</t>
+  </si>
+  <si>
+    <t>89.3% in</t>
+  </si>
+  <si>
+    <t>92.3% in</t>
+  </si>
+  <si>
+    <t>93.2% in</t>
+  </si>
+  <si>
+    <t>89.5% in</t>
+  </si>
+  <si>
+    <t>94% in</t>
+  </si>
+  <si>
+    <t>94.6% in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,6 +617,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF2A2A2A"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -556,7 +632,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -573,11 +649,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -593,6 +689,15 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2689,8 +2794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07B1027-8B35-40EE-AD8B-331EA86040A7}">
   <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4462,4 +4567,2264 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91702C76-26E8-460D-8C75-000E41DFDC01}">
+  <dimension ref="A1:D160"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>6517</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1769</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2300</v>
+      </c>
+      <c r="C3" s="4">
+        <v>825</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4018</v>
+      </c>
+      <c r="C4" s="4">
+        <v>625</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>894</v>
+      </c>
+      <c r="C5" s="4">
+        <v>652</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8893</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9106</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>7774</v>
+      </c>
+      <c r="C7" s="4">
+        <v>926</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>26794</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10448</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>37623</v>
+      </c>
+      <c r="C9" s="3">
+        <v>12053</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4109</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2392</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6409</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1268</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>26506</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43234</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4326</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1311</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>6974</v>
+      </c>
+      <c r="C14" s="4">
+        <v>697</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4248</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2780</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>12980</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5036</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>18358</v>
+      </c>
+      <c r="C17" s="3">
+        <v>11198</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5179</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4836</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>8403</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3271</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>923</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1259</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>15232</v>
+      </c>
+      <c r="C21" s="3">
+        <v>7948</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3129</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1257</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>37444</v>
+      </c>
+      <c r="C23" s="3">
+        <v>16212</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>25142</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6927</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3419</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>47595</v>
+      </c>
+      <c r="C26" s="3">
+        <v>66980</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4">
+        <v>879</v>
+      </c>
+      <c r="C27" s="4">
+        <v>667</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>8058</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1852</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <v>99474</v>
+      </c>
+      <c r="C29" s="3">
+        <v>42683</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>14385</v>
+      </c>
+      <c r="C30" s="3">
+        <v>35882</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4">
+        <v>637</v>
+      </c>
+      <c r="C31" s="4">
+        <v>788</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>14743</v>
+      </c>
+      <c r="C32" s="3">
+        <v>87867</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2104</v>
+      </c>
+      <c r="C33" s="4">
+        <v>744</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>164666</v>
+      </c>
+      <c r="C34" s="3">
+        <v>220620</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3">
+        <v>10532</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4463</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>11766</v>
+      </c>
+      <c r="C36" s="3">
+        <v>4182</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3">
+        <v>49952</v>
+      </c>
+      <c r="C37" s="3">
+        <v>29175</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>4900</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2058</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3">
+        <v>51405</v>
+      </c>
+      <c r="C39" s="3">
+        <v>24072</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>4421</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1609</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3">
+        <v>4982</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2980</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>6058</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1258</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3">
+        <v>13393</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2486</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3">
+        <v>6752</v>
+      </c>
+      <c r="C44" s="3">
+        <v>4772</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3">
+        <v>57993</v>
+      </c>
+      <c r="C45" s="3">
+        <v>305197</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3">
+        <v>5839</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2170</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2155</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1908</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3">
+        <v>10419</v>
+      </c>
+      <c r="C48" s="3">
+        <v>24407</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3">
+        <v>25301</v>
+      </c>
+      <c r="C49" s="3">
+        <v>42587</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2719</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2437</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1256</v>
+      </c>
+      <c r="C51" s="4">
+        <v>167</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <v>23340</v>
+      </c>
+      <c r="C52" s="3">
+        <v>7706</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3">
+        <v>6212</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2858</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <v>6551</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2884</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2888</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1323</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3">
+        <v>12144</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2571</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3">
+        <v>36292</v>
+      </c>
+      <c r="C57" s="3">
+        <v>31820</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
+        <v>26721</v>
+      </c>
+      <c r="C58" s="3">
+        <v>10706</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3">
+        <v>82983</v>
+      </c>
+      <c r="C59" s="3">
+        <v>39855</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <v>9066</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1593</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3">
+        <v>133586</v>
+      </c>
+      <c r="C61" s="3">
+        <v>368864</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3">
+        <v>13382</v>
+      </c>
+      <c r="C62" s="3">
+        <v>2905</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1403</v>
+      </c>
+      <c r="C63" s="4">
+        <v>155</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3">
+        <v>25581</v>
+      </c>
+      <c r="C64" s="3">
+        <v>15857</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3">
+        <v>19385</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4382</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3">
+        <v>7027</v>
+      </c>
+      <c r="C66" s="3">
+        <v>3608</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3">
+        <v>7063</v>
+      </c>
+      <c r="C67" s="3">
+        <v>4080</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3">
+        <v>163937</v>
+      </c>
+      <c r="C68" s="3">
+        <v>236336</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3">
+        <v>16616</v>
+      </c>
+      <c r="C69" s="3">
+        <v>3559</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3">
+        <v>64105</v>
+      </c>
+      <c r="C70" s="3">
+        <v>25002</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1159</v>
+      </c>
+      <c r="C71" s="3">
+        <v>2982</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3">
+        <v>12326</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1792</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3">
+        <v>12567</v>
+      </c>
+      <c r="C73" s="3">
+        <v>3642</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3">
+        <v>9460</v>
+      </c>
+      <c r="C74" s="3">
+        <v>3155</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3">
+        <v>4515</v>
+      </c>
+      <c r="C75" s="4">
+        <v>823</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3">
+        <v>48136</v>
+      </c>
+      <c r="C76" s="3">
+        <v>73118</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3">
+        <v>41468</v>
+      </c>
+      <c r="C77" s="3">
+        <v>32149</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3">
+        <v>3128</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1007</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3">
+        <v>29491</v>
+      </c>
+      <c r="C79" s="3">
+        <v>7641</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3">
+        <v>5809</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1759</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3">
+        <v>4695</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1028</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3">
+        <v>3534</v>
+      </c>
+      <c r="C82" s="3">
+        <v>4053</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3">
+        <v>2158</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1265</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2850</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1222</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="3">
+        <v>9960</v>
+      </c>
+      <c r="C85" s="3">
+        <v>4884</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3">
+        <v>6322</v>
+      </c>
+      <c r="C86" s="3">
+        <v>2612</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2509</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1019</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3">
+        <v>14351</v>
+      </c>
+      <c r="C88" s="3">
+        <v>7875</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="3">
+        <v>11998</v>
+      </c>
+      <c r="C89" s="3">
+        <v>4556</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3">
+        <v>7944</v>
+      </c>
+      <c r="C90" s="3">
+        <v>13051</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="3">
+        <v>3175</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1432</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3">
+        <v>3508</v>
+      </c>
+      <c r="C92" s="3">
+        <v>2015</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="3">
+        <v>25520</v>
+      </c>
+      <c r="C93" s="3">
+        <v>19832</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3">
+        <v>12160</v>
+      </c>
+      <c r="C94" s="3">
+        <v>3122</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="3">
+        <v>6165</v>
+      </c>
+      <c r="C95" s="3">
+        <v>4168</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3">
+        <v>4015</v>
+      </c>
+      <c r="C96" s="3">
+        <v>2611</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1783</v>
+      </c>
+      <c r="C97" s="3">
+        <v>2856</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3">
+        <v>11145</v>
+      </c>
+      <c r="C98" s="3">
+        <v>3364</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="3">
+        <v>2275</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1311</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3">
+        <v>6522</v>
+      </c>
+      <c r="C100" s="3">
+        <v>4281</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3">
+        <v>2063</v>
+      </c>
+      <c r="C101" s="4">
+        <v>747</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3">
+        <v>4933</v>
+      </c>
+      <c r="C102" s="3">
+        <v>3990</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="3">
+        <v>11053</v>
+      </c>
+      <c r="C103" s="3">
+        <v>4382</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3">
+        <v>2959</v>
+      </c>
+      <c r="C104" s="4">
+        <v>976</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="3">
+        <v>8218</v>
+      </c>
+      <c r="C105" s="3">
+        <v>3349</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3">
+        <v>12938</v>
+      </c>
+      <c r="C106" s="3">
+        <v>2300</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" s="3">
+        <v>29949</v>
+      </c>
+      <c r="C107" s="3">
+        <v>49201</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" s="3">
+        <v>23847</v>
+      </c>
+      <c r="C108" s="3">
+        <v>29754</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" s="3">
+        <v>16590</v>
+      </c>
+      <c r="C109" s="3">
+        <v>8156</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" s="3">
+        <v>5591</v>
+      </c>
+      <c r="C110" s="3">
+        <v>2435</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="3">
+        <v>54460</v>
+      </c>
+      <c r="C111" s="3">
+        <v>29658</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="3">
+        <v>6458</v>
+      </c>
+      <c r="C112" s="3">
+        <v>5856</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" s="3">
+        <v>14074</v>
+      </c>
+      <c r="C113" s="3">
+        <v>2806</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114" s="3">
+        <v>7899</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1099</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115" s="3">
+        <v>9124</v>
+      </c>
+      <c r="C115" s="3">
+        <v>1503</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116" s="3">
+        <v>13576</v>
+      </c>
+      <c r="C116" s="3">
+        <v>3650</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B117" s="3">
+        <v>2805</v>
+      </c>
+      <c r="C117" s="3">
+        <v>1217</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118" s="3">
+        <v>8182</v>
+      </c>
+      <c r="C118" s="3">
+        <v>3319</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B119" s="4">
+        <v>604</v>
+      </c>
+      <c r="C119" s="4">
+        <v>497</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120" s="3">
+        <v>7472</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1984</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121" s="3">
+        <v>1389</v>
+      </c>
+      <c r="C121" s="3">
+        <v>1664</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" s="3">
+        <v>26707</v>
+      </c>
+      <c r="C122" s="3">
+        <v>58776</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123" s="3">
+        <v>12782</v>
+      </c>
+      <c r="C123" s="3">
+        <v>30396</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124" s="3">
+        <v>1799</v>
+      </c>
+      <c r="C124" s="4">
+        <v>462</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" s="3">
+        <v>3905</v>
+      </c>
+      <c r="C125" s="3">
+        <v>2654</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126" s="3">
+        <v>2607</v>
+      </c>
+      <c r="C126" s="3">
+        <v>1251</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127" s="3">
+        <v>17337</v>
+      </c>
+      <c r="C127" s="3">
+        <v>11356</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128" s="3">
+        <v>9359</v>
+      </c>
+      <c r="C128" s="3">
+        <v>2385</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129" s="4">
+        <v>796</v>
+      </c>
+      <c r="C129" s="3">
+        <v>1175</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130" s="3">
+        <v>5719</v>
+      </c>
+      <c r="C130" s="3">
+        <v>6312</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" s="3">
+        <v>1390</v>
+      </c>
+      <c r="C131" s="3">
+        <v>2113</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B132" s="4">
+        <v>360</v>
+      </c>
+      <c r="C132" s="4">
+        <v>560</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B133" s="3">
+        <v>6048</v>
+      </c>
+      <c r="C133" s="3">
+        <v>2059</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134" s="3">
+        <v>2278</v>
+      </c>
+      <c r="C134" s="3">
+        <v>1109</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B135" s="3">
+        <v>2822</v>
+      </c>
+      <c r="C135" s="3">
+        <v>1480</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B136" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C136" s="3">
+        <v>2375</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B137" s="3">
+        <v>12950</v>
+      </c>
+      <c r="C137" s="3">
+        <v>8690</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138" s="3">
+        <v>10775</v>
+      </c>
+      <c r="C138" s="3">
+        <v>5306</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B139" s="3">
+        <v>7865</v>
+      </c>
+      <c r="C139" s="3">
+        <v>2935</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140" s="3">
+        <v>6374</v>
+      </c>
+      <c r="C140" s="3">
+        <v>1549</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141" s="3">
+        <v>2101</v>
+      </c>
+      <c r="C141" s="4">
+        <v>952</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142" s="3">
+        <v>18097</v>
+      </c>
+      <c r="C142" s="3">
+        <v>11542</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143" s="3">
+        <v>2349</v>
+      </c>
+      <c r="C143" s="3">
+        <v>1410</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144" s="3">
+        <v>2368</v>
+      </c>
+      <c r="C144" s="3">
+        <v>2040</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145" s="3">
+        <v>12638</v>
+      </c>
+      <c r="C145" s="3">
+        <v>2801</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" s="3">
+        <v>8602</v>
+      </c>
+      <c r="C146" s="3">
+        <v>4201</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147" s="3">
+        <v>23166</v>
+      </c>
+      <c r="C147" s="3">
+        <v>5764</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148" s="3">
+        <v>37590</v>
+      </c>
+      <c r="C148" s="3">
+        <v>12609</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B149" s="3">
+        <v>9909</v>
+      </c>
+      <c r="C149" s="3">
+        <v>4223</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150" s="3">
+        <v>1177</v>
+      </c>
+      <c r="C150" s="3">
+        <v>1488</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151" s="3">
+        <v>4658</v>
+      </c>
+      <c r="C151" s="3">
+        <v>4721</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B152" s="3">
+        <v>9964</v>
+      </c>
+      <c r="C152" s="3">
+        <v>2678</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153" s="4">
+        <v>748</v>
+      </c>
+      <c r="C153" s="4">
+        <v>639</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154" s="3">
+        <v>1582</v>
+      </c>
+      <c r="C154" s="4">
+        <v>686</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155" s="3">
+        <v>12133</v>
+      </c>
+      <c r="C155" s="3">
+        <v>2383</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" s="3">
+        <v>25591</v>
+      </c>
+      <c r="C156" s="3">
+        <v>10649</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157" s="3">
+        <v>2403</v>
+      </c>
+      <c r="C157" s="4">
+        <v>862</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158" s="3">
+        <v>2820</v>
+      </c>
+      <c r="C158" s="3">
+        <v>2155</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159" s="3">
+        <v>2664</v>
+      </c>
+      <c r="C159" s="3">
+        <v>2075</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160" s="3">
+        <v>6826</v>
+      </c>
+      <c r="C160" s="3">
+        <v>2395</v>
+      </c>
+      <c r="D160" s="7">
+        <v>0.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/GA/ga_results.xlsx
+++ b/results/GA/ga_results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MEDSL\election_night2020\results\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC11F3F3-96F6-4C48-B9D2-507E8D4148CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FA86E6-0076-4BB7-8134-8C096852BC7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B0F07BC4-43FE-4C52-B8CC-D731C2314E05}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{B0F07BC4-43FE-4C52-B8CC-D731C2314E05}"/>
   </bookViews>
   <sheets>
     <sheet name="11041115" sheetId="1" r:id="rId1"/>
     <sheet name="1104400" sheetId="2" r:id="rId2"/>
     <sheet name="11051210pm" sheetId="3" r:id="rId3"/>
+    <sheet name="11061100am" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="186">
   <si>
     <t>Appling</t>
   </si>
@@ -591,6 +592,9 @@
   </si>
   <si>
     <t>94.6% in</t>
+  </si>
+  <si>
+    <t>100% in</t>
   </si>
 </sst>
 </file>
@@ -4573,8 +4577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91702C76-26E8-460D-8C75-000E41DFDC01}">
   <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6827,4 +6831,2264 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A510464-8FFD-4636-AC0A-FFB052B20792}">
+  <dimension ref="A1:D160"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>6526</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1779</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2300</v>
+      </c>
+      <c r="C3" s="4">
+        <v>825</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4018</v>
+      </c>
+      <c r="C4" s="4">
+        <v>625</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>894</v>
+      </c>
+      <c r="C5" s="4">
+        <v>652</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8893</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9106</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>7774</v>
+      </c>
+      <c r="C7" s="4">
+        <v>926</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>26794</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10448</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>37623</v>
+      </c>
+      <c r="C9" s="3">
+        <v>12053</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4109</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2392</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6409</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1268</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>26506</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43234</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4326</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1311</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>6980</v>
+      </c>
+      <c r="C14" s="4">
+        <v>697</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4254</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2786</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>14242</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6739</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>18358</v>
+      </c>
+      <c r="C17" s="3">
+        <v>11198</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5399</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5206</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>8403</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3271</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>923</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1259</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>15242</v>
+      </c>
+      <c r="C21" s="3">
+        <v>7963</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3129</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1257</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>37444</v>
+      </c>
+      <c r="C23" s="3">
+        <v>16212</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>25142</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6927</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3419</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>53173</v>
+      </c>
+      <c r="C26" s="3">
+        <v>78128</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4">
+        <v>879</v>
+      </c>
+      <c r="C27" s="4">
+        <v>667</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>8058</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1852</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <v>99474</v>
+      </c>
+      <c r="C29" s="3">
+        <v>42683</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>14385</v>
+      </c>
+      <c r="C30" s="3">
+        <v>35882</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4">
+        <v>637</v>
+      </c>
+      <c r="C31" s="4">
+        <v>788</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>15671</v>
+      </c>
+      <c r="C32" s="3">
+        <v>94365</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2104</v>
+      </c>
+      <c r="C33" s="4">
+        <v>744</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>164965</v>
+      </c>
+      <c r="C34" s="3">
+        <v>221234</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3">
+        <v>10532</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4463</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>11766</v>
+      </c>
+      <c r="C36" s="3">
+        <v>4182</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3">
+        <v>49952</v>
+      </c>
+      <c r="C37" s="3">
+        <v>29175</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>4900</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2058</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3">
+        <v>51405</v>
+      </c>
+      <c r="C39" s="3">
+        <v>24072</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>4421</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1609</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3">
+        <v>4982</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2980</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>6058</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1258</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3">
+        <v>13393</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2486</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3">
+        <v>6752</v>
+      </c>
+      <c r="C44" s="3">
+        <v>4772</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3">
+        <v>57993</v>
+      </c>
+      <c r="C45" s="3">
+        <v>305197</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3">
+        <v>5839</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2170</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2155</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1908</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3">
+        <v>10419</v>
+      </c>
+      <c r="C48" s="3">
+        <v>24407</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3">
+        <v>25301</v>
+      </c>
+      <c r="C49" s="3">
+        <v>42587</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2719</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2437</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1256</v>
+      </c>
+      <c r="C51" s="4">
+        <v>167</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <v>23340</v>
+      </c>
+      <c r="C52" s="3">
+        <v>7706</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3">
+        <v>6212</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2858</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <v>6551</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2884</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2888</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1323</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3">
+        <v>12144</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2571</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3">
+        <v>36312</v>
+      </c>
+      <c r="C57" s="3">
+        <v>31854</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
+        <v>26843</v>
+      </c>
+      <c r="C58" s="3">
+        <v>10818</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3">
+        <v>85081</v>
+      </c>
+      <c r="C59" s="3">
+        <v>42177</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <v>9066</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1593</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3">
+        <v>135043</v>
+      </c>
+      <c r="C61" s="3">
+        <v>373569</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3">
+        <v>13382</v>
+      </c>
+      <c r="C62" s="3">
+        <v>2905</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1403</v>
+      </c>
+      <c r="C63" s="4">
+        <v>155</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3">
+        <v>25581</v>
+      </c>
+      <c r="C64" s="3">
+        <v>15857</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3">
+        <v>19385</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4382</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3">
+        <v>7027</v>
+      </c>
+      <c r="C66" s="3">
+        <v>3608</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3">
+        <v>7068</v>
+      </c>
+      <c r="C67" s="3">
+        <v>4083</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3">
+        <v>163937</v>
+      </c>
+      <c r="C68" s="3">
+        <v>236336</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3">
+        <v>16616</v>
+      </c>
+      <c r="C69" s="3">
+        <v>3559</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3">
+        <v>64105</v>
+      </c>
+      <c r="C70" s="3">
+        <v>25002</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1159</v>
+      </c>
+      <c r="C71" s="3">
+        <v>2982</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3">
+        <v>12326</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1792</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3">
+        <v>14305</v>
+      </c>
+      <c r="C73" s="3">
+        <v>5450</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3">
+        <v>9460</v>
+      </c>
+      <c r="C74" s="3">
+        <v>3155</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3">
+        <v>4515</v>
+      </c>
+      <c r="C75" s="4">
+        <v>823</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3">
+        <v>48136</v>
+      </c>
+      <c r="C76" s="3">
+        <v>73118</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3">
+        <v>41468</v>
+      </c>
+      <c r="C77" s="3">
+        <v>32149</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3">
+        <v>3128</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1007</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3">
+        <v>29491</v>
+      </c>
+      <c r="C79" s="3">
+        <v>7641</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3">
+        <v>5809</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1759</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3">
+        <v>4695</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1028</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3">
+        <v>3534</v>
+      </c>
+      <c r="C82" s="3">
+        <v>4053</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3">
+        <v>2158</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1265</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2850</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1222</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="3">
+        <v>9960</v>
+      </c>
+      <c r="C85" s="3">
+        <v>4884</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3">
+        <v>6322</v>
+      </c>
+      <c r="C86" s="3">
+        <v>2612</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2509</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1019</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3">
+        <v>14351</v>
+      </c>
+      <c r="C88" s="3">
+        <v>7875</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="3">
+        <v>11998</v>
+      </c>
+      <c r="C89" s="3">
+        <v>4556</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3">
+        <v>7944</v>
+      </c>
+      <c r="C90" s="3">
+        <v>13051</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="3">
+        <v>3175</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1432</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3">
+        <v>3508</v>
+      </c>
+      <c r="C92" s="3">
+        <v>2015</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="3">
+        <v>25520</v>
+      </c>
+      <c r="C93" s="3">
+        <v>19832</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3">
+        <v>12160</v>
+      </c>
+      <c r="C94" s="3">
+        <v>3122</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="3">
+        <v>6165</v>
+      </c>
+      <c r="C95" s="3">
+        <v>4168</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3">
+        <v>4016</v>
+      </c>
+      <c r="C96" s="3">
+        <v>2611</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1783</v>
+      </c>
+      <c r="C97" s="3">
+        <v>2857</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3">
+        <v>11146</v>
+      </c>
+      <c r="C98" s="3">
+        <v>3364</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="3">
+        <v>2275</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1311</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3">
+        <v>6522</v>
+      </c>
+      <c r="C100" s="3">
+        <v>4281</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3">
+        <v>2063</v>
+      </c>
+      <c r="C101" s="4">
+        <v>747</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3">
+        <v>4933</v>
+      </c>
+      <c r="C102" s="3">
+        <v>3990</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="3">
+        <v>11053</v>
+      </c>
+      <c r="C103" s="3">
+        <v>4382</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3">
+        <v>2959</v>
+      </c>
+      <c r="C104" s="4">
+        <v>976</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="3">
+        <v>8218</v>
+      </c>
+      <c r="C105" s="3">
+        <v>3349</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3">
+        <v>12938</v>
+      </c>
+      <c r="C106" s="3">
+        <v>2300</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" s="3">
+        <v>29949</v>
+      </c>
+      <c r="C107" s="3">
+        <v>49201</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" s="3">
+        <v>23847</v>
+      </c>
+      <c r="C108" s="3">
+        <v>29754</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" s="3">
+        <v>16590</v>
+      </c>
+      <c r="C109" s="3">
+        <v>8156</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" s="3">
+        <v>5591</v>
+      </c>
+      <c r="C110" s="3">
+        <v>2435</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="3">
+        <v>54460</v>
+      </c>
+      <c r="C111" s="3">
+        <v>29658</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="3">
+        <v>6491</v>
+      </c>
+      <c r="C112" s="3">
+        <v>5910</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" s="3">
+        <v>14075</v>
+      </c>
+      <c r="C113" s="3">
+        <v>2808</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114" s="3">
+        <v>7899</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1099</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115" s="3">
+        <v>9124</v>
+      </c>
+      <c r="C115" s="3">
+        <v>1503</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116" s="3">
+        <v>13576</v>
+      </c>
+      <c r="C116" s="3">
+        <v>3650</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B117" s="3">
+        <v>2805</v>
+      </c>
+      <c r="C117" s="3">
+        <v>1217</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118" s="3">
+        <v>8207</v>
+      </c>
+      <c r="C118" s="3">
+        <v>3340</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B119" s="4">
+        <v>604</v>
+      </c>
+      <c r="C119" s="4">
+        <v>497</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120" s="3">
+        <v>7472</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1984</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121" s="3">
+        <v>1391</v>
+      </c>
+      <c r="C121" s="3">
+        <v>1671</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" s="3">
+        <v>26707</v>
+      </c>
+      <c r="C122" s="3">
+        <v>58776</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123" s="3">
+        <v>12990</v>
+      </c>
+      <c r="C123" s="3">
+        <v>31199</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124" s="3">
+        <v>1799</v>
+      </c>
+      <c r="C124" s="4">
+        <v>462</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" s="3">
+        <v>3915</v>
+      </c>
+      <c r="C125" s="3">
+        <v>2661</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126" s="3">
+        <v>2607</v>
+      </c>
+      <c r="C126" s="3">
+        <v>1251</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127" s="3">
+        <v>17337</v>
+      </c>
+      <c r="C127" s="3">
+        <v>11356</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128" s="3">
+        <v>9359</v>
+      </c>
+      <c r="C128" s="3">
+        <v>2385</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129" s="4">
+        <v>796</v>
+      </c>
+      <c r="C129" s="3">
+        <v>1175</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130" s="3">
+        <v>5732</v>
+      </c>
+      <c r="C130" s="3">
+        <v>6318</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" s="3">
+        <v>1390</v>
+      </c>
+      <c r="C131" s="3">
+        <v>2113</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B132" s="4">
+        <v>360</v>
+      </c>
+      <c r="C132" s="4">
+        <v>560</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B133" s="3">
+        <v>6048</v>
+      </c>
+      <c r="C133" s="3">
+        <v>2059</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134" s="3">
+        <v>2405</v>
+      </c>
+      <c r="C134" s="3">
+        <v>1382</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B135" s="3">
+        <v>2822</v>
+      </c>
+      <c r="C135" s="3">
+        <v>1480</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B136" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C136" s="3">
+        <v>2375</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B137" s="3">
+        <v>12950</v>
+      </c>
+      <c r="C137" s="3">
+        <v>8690</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138" s="3">
+        <v>10775</v>
+      </c>
+      <c r="C138" s="3">
+        <v>5306</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B139" s="3">
+        <v>7865</v>
+      </c>
+      <c r="C139" s="3">
+        <v>2935</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140" s="3">
+        <v>6374</v>
+      </c>
+      <c r="C140" s="3">
+        <v>1549</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141" s="3">
+        <v>2101</v>
+      </c>
+      <c r="C141" s="4">
+        <v>952</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142" s="3">
+        <v>18097</v>
+      </c>
+      <c r="C142" s="3">
+        <v>11542</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143" s="3">
+        <v>2349</v>
+      </c>
+      <c r="C143" s="3">
+        <v>1410</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144" s="3">
+        <v>2368</v>
+      </c>
+      <c r="C144" s="3">
+        <v>2040</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145" s="3">
+        <v>12638</v>
+      </c>
+      <c r="C145" s="3">
+        <v>2801</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" s="3">
+        <v>8602</v>
+      </c>
+      <c r="C146" s="3">
+        <v>4201</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147" s="3">
+        <v>23166</v>
+      </c>
+      <c r="C147" s="3">
+        <v>5764</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148" s="3">
+        <v>37590</v>
+      </c>
+      <c r="C148" s="3">
+        <v>12609</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B149" s="3">
+        <v>9909</v>
+      </c>
+      <c r="C149" s="3">
+        <v>4223</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150" s="3">
+        <v>1177</v>
+      </c>
+      <c r="C150" s="3">
+        <v>1488</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151" s="3">
+        <v>4658</v>
+      </c>
+      <c r="C151" s="3">
+        <v>4721</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B152" s="3">
+        <v>9964</v>
+      </c>
+      <c r="C152" s="3">
+        <v>2678</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153" s="4">
+        <v>748</v>
+      </c>
+      <c r="C153" s="4">
+        <v>639</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154" s="3">
+        <v>1583</v>
+      </c>
+      <c r="C154" s="4">
+        <v>688</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155" s="3">
+        <v>12137</v>
+      </c>
+      <c r="C155" s="3">
+        <v>2387</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" s="3">
+        <v>25591</v>
+      </c>
+      <c r="C156" s="3">
+        <v>10649</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157" s="3">
+        <v>2403</v>
+      </c>
+      <c r="C157" s="4">
+        <v>862</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158" s="3">
+        <v>2820</v>
+      </c>
+      <c r="C158" s="3">
+        <v>2155</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159" s="3">
+        <v>2664</v>
+      </c>
+      <c r="C159" s="3">
+        <v>2075</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160" s="3">
+        <v>6826</v>
+      </c>
+      <c r="C160" s="3">
+        <v>2395</v>
+      </c>
+      <c r="D160" s="7">
+        <v>0.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>